--- a/File's folder/Geschatte tijden kosten project.xlsx
+++ b/File's folder/Geschatte tijden kosten project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Werk gerelateerd\winch_interface\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Werk gerelateerd\winch_interface\File's folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3416DB47-CDFF-4D70-9785-88C34616D7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E20F4FF-4852-4F9D-85C4-17E4EA2E0885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22272F39-3713-407E-852A-8A444792C2E8}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Geschatten tijd nodig Winch Interface Project</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>instudeertijd:</t>
+  </si>
+  <si>
+    <t>tijd gekost:</t>
+  </si>
+  <si>
+    <t>Actueel kosten:</t>
   </si>
 </sst>
 </file>
@@ -437,20 +443,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A246588B-AA7D-4211-A742-A5D00192C46C}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -462,10 +468,17 @@
       </c>
       <c r="E3" s="1" cm="1">
         <f t="array" ref="E3">SUM(B3 *B6:E8)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" cm="1">
+        <f t="array" ref="I3">SUM(B3*G6:G10)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -478,8 +491,11 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -493,7 +509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -501,10 +517,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -515,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -526,7 +545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>

--- a/File's folder/Geschatte tijden kosten project.xlsx
+++ b/File's folder/Geschatte tijden kosten project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Werk gerelateerd\winch_interface\File's folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E20F4FF-4852-4F9D-85C4-17E4EA2E0885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C8C4D2-FF87-482A-810C-43A8DBFD5AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22272F39-3713-407E-852A-8A444792C2E8}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="I3" s="1" cm="1">
         <f t="array" ref="I3">SUM(B3*G6:G10)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">

--- a/File's folder/Geschatte tijden kosten project.xlsx
+++ b/File's folder/Geschatte tijden kosten project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Werk gerelateerd\winch_interface\File's folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C8C4D2-FF87-482A-810C-43A8DBFD5AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C5D3CB-B44A-48DA-A8E4-CE55C4C92DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22272F39-3713-407E-852A-8A444792C2E8}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Geschatten tijd nodig Winch Interface Project</t>
   </si>
@@ -446,7 +446,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,8 +474,8 @@
         <v>9</v>
       </c>
       <c r="I3" s="1" cm="1">
-        <f t="array" ref="I3">SUM(B3*G6:G10)</f>
-        <v>60</v>
+        <f t="array" ref="I3">SUM(B3*G6:H10)</f>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -494,6 +494,9 @@
       <c r="G5" t="s">
         <v>8</v>
       </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -506,6 +509,12 @@
         <v>2</v>
       </c>
       <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
     </row>
